--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>816581.6913396121</v>
+        <v>823546.9742810384</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6465050.950138939</v>
+        <v>5312247.587582167</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4913218.392264778</v>
+        <v>3783355.816622881</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7881353.364061703</v>
+        <v>8339037.124256928</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>22.5321891626516</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>103.1821347938679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +819,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>153.0251390105129</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>7.770085442703907</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,16 +901,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3182877398832096</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>20.21187914086494</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>37.84255357379566</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
@@ -1117,10 +1119,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -1148,10 +1150,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>125.6431328508131</v>
+        <v>84.76227032663424</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>98.9457413571089</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1381,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>3.575621745596433</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -1427,13 +1429,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>312.6010246295451</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>169.9879900998743</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
@@ -1591,7 +1593,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059087</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -1622,10 +1624,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>172.5357053488697</v>
+        <v>84.76227032663424</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1673,7 +1675,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1815,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>165.421695385058</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -1856,10 +1858,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H17" t="n">
-        <v>285.967377051023</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>166.7165542762732</v>
       </c>
       <c r="C19" t="n">
-        <v>168.1821651292104</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2098,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>84.73179601342657</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2242,16 +2244,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>153.0251390105127</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2296,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>54.68688746169129</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -2327,13 +2329,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>367.6236394854355</v>
       </c>
       <c r="G23" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2485,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>137.0591948939936</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>165.577887163712</v>
@@ -2494,7 +2496,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>136.1769805884533</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>92.80744320528898</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,7 +2848,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>205.293418382671</v>
+        <v>119.8051733265733</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>228.2601210751809</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>27.35334490128935</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3032,7 +3034,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3095,7 +3097,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>354.8624710341901</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>53.92978098120716</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>266.2723283900672</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>49.02746394088942</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3424,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>129.1752199258842</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
@@ -3484,13 +3486,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>91.64413272166932</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3506,13 +3508,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>265.7345771113586</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>367.6236394854355</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
@@ -3521,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>105.8745427447691</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>29.06736062834963</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3724,7 +3726,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,7 +3745,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3752,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>274.2883585578521</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>177.9195839254089</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
@@ -3901,10 +3903,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>58.8776823612798</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>250.2730829068766</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>347.8896106172249</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3986,13 +3988,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>144.4439334101592</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>27.35334490128935</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2516.567962704434</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C2" t="n">
-        <v>2106.443372017704</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D2" t="n">
-        <v>1701.979442110764</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E2" t="n">
-        <v>1287.639226627661</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F2" t="n">
-        <v>866.6088145813485</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G2" t="n">
-        <v>457.8805304741806</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9720331018986</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>598.7797715280112</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>746.332467692699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M2" t="n">
-        <v>1496.508314127474</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N2" t="n">
-        <v>1496.508314127474</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O2" t="n">
-        <v>2140.139170544579</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P2" t="n">
-        <v>2669.295868463731</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
-        <v>2990.456875259023</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
-        <v>3031.013520948588</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>3031.013520948588</v>
+        <v>2065.494494447121</v>
       </c>
       <c r="T2" t="n">
-        <v>3031.013520948588</v>
+        <v>1843.288010393979</v>
       </c>
       <c r="U2" t="n">
-        <v>3031.013520948588</v>
+        <v>1586.22751865349</v>
       </c>
       <c r="V2" t="n">
-        <v>3031.013520948588</v>
+        <v>1236.38996398997</v>
       </c>
       <c r="W2" t="n">
-        <v>3031.013520948588</v>
+        <v>852.6296631251389</v>
       </c>
       <c r="X2" t="n">
-        <v>3031.013520948588</v>
+        <v>451.9862652940915</v>
       </c>
       <c r="Y2" t="n">
-        <v>2926.789142368923</v>
+        <v>451.9862652940915</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1663.355166984622</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>1529.360095733568</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>1412.462937952961</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>1291.970121945289</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>1183.010242127793</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>1076.020129442132</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>1005.272916477848</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>984.5243250980881</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>984.5243250980881</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>984.5243250980881</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="L3" t="n">
-        <v>984.5243250980881</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="M3" t="n">
-        <v>1734.700171532864</v>
+        <v>751.4208778585607</v>
       </c>
       <c r="N3" t="n">
-        <v>1977.21196571871</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="O3" t="n">
-        <v>2681.169056264604</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P3" t="n">
-        <v>2681.169056264604</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
-        <v>3031.013520948588</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
-        <v>3031.013520948588</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>2923.023511062897</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>2763.681647249905</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>2566.330836388124</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>2352.619309381158</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>2139.386141117486</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
-        <v>1963.060159256379</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>1803.658199620209</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>231.7136428572553</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="C4" t="n">
-        <v>60.62027041897176</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="D4" t="n">
-        <v>60.62027041897176</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="E4" t="n">
-        <v>60.62027041897176</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="F4" t="n">
-        <v>60.62027041897176</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="G4" t="n">
-        <v>60.62027041897176</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>60.62027041897176</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>74.70281982418228</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>229.2551475464203</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>489.1522478264808</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>778.4163042669741</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1059.255086661224</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1318.815696987699</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>1524.491137237311</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>1590.019167039822</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1590.019167039822</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1590.019167039822</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1590.019167039822</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1435.448319554455</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>1161.562574493977</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W4" t="n">
-        <v>882.4929100028517</v>
+        <v>495.4182931138637</v>
       </c>
       <c r="X4" t="n">
-        <v>644.149047862535</v>
+        <v>495.4182931138637</v>
       </c>
       <c r="Y4" t="n">
-        <v>419.4133492512997</v>
+        <v>495.4182931138637</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>471.0663638732605</v>
+        <v>893.3361278988716</v>
       </c>
       <c r="C5" t="n">
-        <v>60.94177318653055</v>
+        <v>483.2115372121417</v>
       </c>
       <c r="D5" t="n">
-        <v>60.62027041897176</v>
+        <v>483.2115372121417</v>
       </c>
       <c r="E5" t="n">
-        <v>60.62027041897176</v>
+        <v>483.2115372121417</v>
       </c>
       <c r="F5" t="n">
-        <v>60.62027041897176</v>
+        <v>62.18112516582926</v>
       </c>
       <c r="G5" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>314.8057418867261</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>852.9652429957656</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>1565.556642808004</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M5" t="n">
-        <v>2315.732489242779</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N5" t="n">
-        <v>2461.300177339871</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O5" t="n">
-        <v>2461.300177339871</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>2990.456875259023</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2990.456875259023</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
-        <v>3031.013520948588</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2895.732445742689</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>2673.525961689548</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>2416.465469949058</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>2066.627915285539</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1682.867614420707</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="X5" t="n">
-        <v>1282.22421658966</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="Y5" t="n">
-        <v>881.2875435377499</v>
+        <v>1303.557307563361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>739.4511123055061</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>605.4560410544518</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>488.5588832738442</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>368.0660672661722</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>259.1061874486768</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>152.1160747630155</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>81.36886179873159</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>60.62027041897176</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>516.4265266842705</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>516.4265266842705</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>977.5296357880828</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N6" t="n">
-        <v>1727.705482222858</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O6" t="n">
-        <v>1727.705482222858</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P6" t="n">
-        <v>1727.705482222858</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2077.549946906842</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
-        <v>2107.109466269472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>1999.119456383781</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>1839.777592570789</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1642.426781709008</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1428.715254702041</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1215.48208643837</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
-        <v>1039.156104577263</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>879.7541449410927</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.62027041897176</v>
+        <v>367.429305553252</v>
       </c>
       <c r="C7" t="n">
-        <v>60.62027041897176</v>
+        <v>196.3359331149685</v>
       </c>
       <c r="D7" t="n">
-        <v>60.62027041897176</v>
+        <v>196.3359331149685</v>
       </c>
       <c r="E7" t="n">
-        <v>60.62027041897176</v>
+        <v>196.3359331149685</v>
       </c>
       <c r="F7" t="n">
-        <v>60.62027041897176</v>
+        <v>196.3359331149685</v>
       </c>
       <c r="G7" t="n">
-        <v>60.62027041897176</v>
+        <v>196.3359331149685</v>
       </c>
       <c r="H7" t="n">
-        <v>60.62027041897176</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>74.70281982418228</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>229.2551475464203</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>489.1522478264808</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>778.4163042669741</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>1059.255086661224</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>1318.815696987699</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>1524.491137237311</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>1590.019167039822</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1504.746448715222</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1318.354680595132</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1078.805941571834</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>796.0077941179582</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>522.1220490574801</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W7" t="n">
-        <v>243.0523845663545</v>
+        <v>1018.208572698848</v>
       </c>
       <c r="X7" t="n">
-        <v>60.62027041897176</v>
+        <v>779.8647105585317</v>
       </c>
       <c r="Y7" t="n">
-        <v>60.62027041897176</v>
+        <v>555.1290119472964</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1709.183111962495</v>
+        <v>2547.518411739271</v>
       </c>
       <c r="C8" t="n">
-        <v>1709.183111962495</v>
+        <v>2137.393821052541</v>
       </c>
       <c r="D8" t="n">
-        <v>1304.719182055555</v>
+        <v>1732.929891145602</v>
       </c>
       <c r="E8" t="n">
-        <v>890.3789665724521</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F8" t="n">
-        <v>469.3485545261396</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G8" t="n">
-        <v>60.62027041897176</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H8" t="n">
-        <v>60.62027041897176</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I8" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J8" t="n">
-        <v>60.62027041897176</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K8" t="n">
-        <v>598.7797715280112</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L8" t="n">
-        <v>1311.371171340249</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M8" t="n">
-        <v>2061.547017775025</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N8" t="n">
-        <v>2811.7228642098</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O8" t="n">
-        <v>3031.013520948588</v>
+        <v>3769.637555890318</v>
       </c>
       <c r="P8" t="n">
-        <v>3031.013520948588</v>
+        <v>4298.794253809469</v>
       </c>
       <c r="Q8" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R8" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S8" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="T8" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="U8" t="n">
-        <v>2904.101265543726</v>
+        <v>4492.917517815069</v>
       </c>
       <c r="V8" t="n">
-        <v>2904.101265543726</v>
+        <v>4143.079963151549</v>
       </c>
       <c r="W8" t="n">
-        <v>2520.340964678895</v>
+        <v>3759.319662286718</v>
       </c>
       <c r="X8" t="n">
-        <v>2520.340964678895</v>
+        <v>3358.676264455671</v>
       </c>
       <c r="Y8" t="n">
-        <v>2119.404291626985</v>
+        <v>2957.739591403761</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>739.4511123055061</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C9" t="n">
-        <v>605.4560410544518</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D9" t="n">
-        <v>488.5588832738442</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E9" t="n">
-        <v>368.0660672661722</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F9" t="n">
-        <v>259.1061874486768</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G9" t="n">
-        <v>152.1160747630155</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H9" t="n">
-        <v>81.36886179873159</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I9" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J9" t="n">
-        <v>253.433127981605</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K9" t="n">
-        <v>709.2393842469037</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="L9" t="n">
-        <v>709.2393842469037</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="M9" t="n">
-        <v>1459.415230681679</v>
+        <v>934.5478001483758</v>
       </c>
       <c r="N9" t="n">
-        <v>1757.265001585488</v>
+        <v>1808.205892259994</v>
       </c>
       <c r="O9" t="n">
-        <v>1757.265001585488</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="P9" t="n">
-        <v>1757.265001585488</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q9" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R9" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S9" t="n">
-        <v>1999.119456383781</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T9" t="n">
-        <v>1839.777592570789</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U9" t="n">
-        <v>1642.426781709008</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V9" t="n">
-        <v>1428.715254702041</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W9" t="n">
-        <v>1215.48208643837</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X9" t="n">
-        <v>1039.156104577263</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y9" t="n">
-        <v>879.7541449410927</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1149.954120720108</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="C10" t="n">
-        <v>978.860748281825</v>
+        <v>1009.811197316662</v>
       </c>
       <c r="D10" t="n">
-        <v>819.3661036047349</v>
+        <v>850.3165526395721</v>
       </c>
       <c r="E10" t="n">
-        <v>658.4552884730543</v>
+        <v>689.4057375078917</v>
       </c>
       <c r="F10" t="n">
-        <v>493.8241625836456</v>
+        <v>524.7746116184829</v>
       </c>
       <c r="G10" t="n">
-        <v>326.573771509189</v>
+        <v>357.5242205440263</v>
       </c>
       <c r="H10" t="n">
-        <v>176.9663163146456</v>
+        <v>207.916765349483</v>
       </c>
       <c r="I10" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J10" t="n">
-        <v>74.70281982418228</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K10" t="n">
-        <v>229.2551475464203</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L10" t="n">
-        <v>489.1522478264808</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M10" t="n">
-        <v>778.4163042669741</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N10" t="n">
-        <v>1059.255086661224</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O10" t="n">
-        <v>1318.815696987699</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P10" t="n">
-        <v>1524.491137237311</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q10" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R10" t="n">
-        <v>1590.019167039822</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="S10" t="n">
-        <v>1590.019167039822</v>
+        <v>1349.305129629969</v>
       </c>
       <c r="T10" t="n">
-        <v>1590.019167039822</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="U10" t="n">
-        <v>1590.019167039822</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="V10" t="n">
-        <v>1590.019167039822</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="W10" t="n">
-        <v>1590.019167039822</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="X10" t="n">
-        <v>1562.389525725388</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="Y10" t="n">
-        <v>1337.653827114153</v>
+        <v>1109.756390606671</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1289.549006495744</v>
+        <v>2153.869890821028</v>
       </c>
       <c r="C11" t="n">
-        <v>879.4244158090146</v>
+        <v>1743.745300134298</v>
       </c>
       <c r="D11" t="n">
-        <v>474.960485902075</v>
+        <v>1339.281370227359</v>
       </c>
       <c r="E11" t="n">
-        <v>60.62027041897176</v>
+        <v>924.9411547442555</v>
       </c>
       <c r="F11" t="n">
-        <v>60.62027041897176</v>
+        <v>503.9107426979431</v>
       </c>
       <c r="G11" t="n">
-        <v>60.62027041897176</v>
+        <v>95.18245859077524</v>
       </c>
       <c r="H11" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I11" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J11" t="n">
-        <v>60.62027041897176</v>
+        <v>263.7802573176947</v>
       </c>
       <c r="K11" t="n">
-        <v>60.62027041897176</v>
+        <v>801.9397584267342</v>
       </c>
       <c r="L11" t="n">
-        <v>773.2116702312098</v>
+        <v>1514.531158238972</v>
       </c>
       <c r="M11" t="n">
-        <v>1523.387516665985</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N11" t="n">
-        <v>2025.665012046626</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O11" t="n">
-        <v>2669.295868463731</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P11" t="n">
-        <v>2669.295868463731</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q11" t="n">
-        <v>2990.456875259023</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R11" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S11" t="n">
-        <v>2895.732445742689</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="T11" t="n">
-        <v>2673.525961689548</v>
+        <v>4356.329488637316</v>
       </c>
       <c r="U11" t="n">
-        <v>2416.465469949058</v>
+        <v>4099.268996896826</v>
       </c>
       <c r="V11" t="n">
-        <v>2100.706859212144</v>
+        <v>3749.431442233307</v>
       </c>
       <c r="W11" t="n">
-        <v>2100.706859212144</v>
+        <v>3365.671141368475</v>
       </c>
       <c r="X11" t="n">
-        <v>2100.706859212144</v>
+        <v>2965.027743537428</v>
       </c>
       <c r="Y11" t="n">
-        <v>1699.770186160234</v>
+        <v>2564.091070485518</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>739.4511123055061</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C12" t="n">
-        <v>605.4560410544518</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D12" t="n">
-        <v>488.5588832738442</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E12" t="n">
-        <v>368.0660672661722</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F12" t="n">
-        <v>259.1061874486768</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G12" t="n">
-        <v>152.1160747630155</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H12" t="n">
-        <v>81.36886179873159</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I12" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J12" t="n">
-        <v>60.62027041897176</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K12" t="n">
-        <v>516.4265266842705</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="L12" t="n">
-        <v>1177.514698603559</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="M12" t="n">
-        <v>1356.933619834696</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="N12" t="n">
-        <v>2107.109466269472</v>
+        <v>1613.847925393359</v>
       </c>
       <c r="O12" t="n">
-        <v>2107.109466269472</v>
+        <v>1613.847925393359</v>
       </c>
       <c r="P12" t="n">
-        <v>2107.109466269472</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="Q12" t="n">
-        <v>2107.109466269472</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R12" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S12" t="n">
-        <v>1999.119456383781</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T12" t="n">
-        <v>1839.777592570789</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U12" t="n">
-        <v>1642.426781709008</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V12" t="n">
-        <v>1428.715254702041</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W12" t="n">
-        <v>1215.48208643837</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X12" t="n">
-        <v>1039.156104577263</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y12" t="n">
-        <v>879.7541449410927</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>344.2167073891022</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C13" t="n">
-        <v>344.2167073891022</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D13" t="n">
-        <v>344.2167073891022</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E13" t="n">
-        <v>344.2167073891022</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F13" t="n">
-        <v>344.2167073891022</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G13" t="n">
-        <v>176.9663163146456</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H13" t="n">
-        <v>176.9663163146456</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I13" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J13" t="n">
-        <v>74.70281982418228</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K13" t="n">
-        <v>229.2551475464203</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L13" t="n">
-        <v>489.1522478264808</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M13" t="n">
-        <v>778.4163042669741</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N13" t="n">
-        <v>1059.255086661224</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O13" t="n">
-        <v>1318.815696987699</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P13" t="n">
-        <v>1524.491137237311</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q13" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R13" t="n">
-        <v>1590.019167039822</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="S13" t="n">
-        <v>1590.019167039822</v>
+        <v>1349.305129629969</v>
       </c>
       <c r="T13" t="n">
-        <v>1418.314126534898</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="U13" t="n">
-        <v>1135.515979081023</v>
+        <v>826.9582431527954</v>
       </c>
       <c r="V13" t="n">
-        <v>861.6302340205445</v>
+        <v>553.0724980923173</v>
       </c>
       <c r="W13" t="n">
-        <v>582.5605695294189</v>
+        <v>274.0028336011917</v>
       </c>
       <c r="X13" t="n">
-        <v>344.2167073891022</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="Y13" t="n">
-        <v>344.2167073891022</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1714.843772742285</v>
+        <v>2547.518411739271</v>
       </c>
       <c r="C14" t="n">
-        <v>1304.719182055555</v>
+        <v>2137.393821052541</v>
       </c>
       <c r="D14" t="n">
-        <v>1304.719182055555</v>
+        <v>1732.929891145602</v>
       </c>
       <c r="E14" t="n">
-        <v>890.3789665724521</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F14" t="n">
-        <v>469.3485545261396</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G14" t="n">
-        <v>60.62027041897176</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H14" t="n">
-        <v>60.62027041897176</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I14" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J14" t="n">
-        <v>314.8057418867261</v>
+        <v>263.7802573176947</v>
       </c>
       <c r="K14" t="n">
-        <v>852.9652429957656</v>
+        <v>801.9397584267342</v>
       </c>
       <c r="L14" t="n">
-        <v>1565.556642808004</v>
+        <v>1514.531158238972</v>
       </c>
       <c r="M14" t="n">
-        <v>1596.650172407143</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N14" t="n">
-        <v>2346.826018841918</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O14" t="n">
-        <v>2990.456875259023</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P14" t="n">
-        <v>2990.456875259023</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q14" t="n">
-        <v>2990.456875259023</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R14" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S14" t="n">
-        <v>2895.732445742689</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="T14" t="n">
-        <v>2673.525961689548</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="U14" t="n">
-        <v>2499.247471438164</v>
+        <v>4492.917517815069</v>
       </c>
       <c r="V14" t="n">
-        <v>2499.247471438164</v>
+        <v>4143.079963151549</v>
       </c>
       <c r="W14" t="n">
-        <v>2115.487170573333</v>
+        <v>3759.319662286718</v>
       </c>
       <c r="X14" t="n">
-        <v>1714.843772742285</v>
+        <v>3358.676264455671</v>
       </c>
       <c r="Y14" t="n">
-        <v>1714.843772742285</v>
+        <v>2957.739591403761</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>739.4511123055061</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C15" t="n">
-        <v>605.4560410544518</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D15" t="n">
-        <v>488.5588832738442</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E15" t="n">
-        <v>368.0660672661722</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F15" t="n">
-        <v>259.1061874486768</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G15" t="n">
-        <v>152.1160747630155</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H15" t="n">
-        <v>81.36886179873159</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I15" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J15" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K15" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="L15" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="M15" t="n">
-        <v>652.976529288802</v>
+        <v>702.6959307041611</v>
       </c>
       <c r="N15" t="n">
-        <v>1403.152375723578</v>
+        <v>1576.354022815779</v>
       </c>
       <c r="O15" t="n">
-        <v>2107.109466269472</v>
+        <v>1576.354022815779</v>
       </c>
       <c r="P15" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q15" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R15" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S15" t="n">
-        <v>1999.119456383781</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T15" t="n">
-        <v>1839.777592570789</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U15" t="n">
-        <v>1642.426781709008</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V15" t="n">
-        <v>1428.715254702041</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W15" t="n">
-        <v>1215.48208643837</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X15" t="n">
-        <v>1039.156104577263</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y15" t="n">
-        <v>879.7541449410927</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>60.62027041897176</v>
+        <v>1180.904569754946</v>
       </c>
       <c r="C16" t="n">
-        <v>60.62027041897176</v>
+        <v>1009.811197316662</v>
       </c>
       <c r="D16" t="n">
-        <v>60.62027041897176</v>
+        <v>850.3165526395721</v>
       </c>
       <c r="E16" t="n">
-        <v>60.62027041897176</v>
+        <v>689.4057375078917</v>
       </c>
       <c r="F16" t="n">
-        <v>60.62027041897176</v>
+        <v>524.7746116184829</v>
       </c>
       <c r="G16" t="n">
-        <v>60.62027041897176</v>
+        <v>357.5242205440263</v>
       </c>
       <c r="H16" t="n">
-        <v>60.62027041897176</v>
+        <v>207.916765349483</v>
       </c>
       <c r="I16" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J16" t="n">
-        <v>74.70281982418228</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K16" t="n">
-        <v>229.2551475464203</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L16" t="n">
-        <v>489.1522478264808</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M16" t="n">
-        <v>778.4163042669741</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N16" t="n">
-        <v>1059.255086661224</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O16" t="n">
-        <v>1318.815696987699</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P16" t="n">
-        <v>1524.491137237311</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q16" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R16" t="n">
-        <v>1504.746448715222</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="S16" t="n">
-        <v>1318.354680595132</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="T16" t="n">
-        <v>1078.805941571834</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="U16" t="n">
-        <v>796.0077941179582</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="V16" t="n">
-        <v>522.1220490574801</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="W16" t="n">
-        <v>243.0523845663545</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="X16" t="n">
-        <v>60.62027041897176</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="Y16" t="n">
-        <v>60.62027041897176</v>
+        <v>1368.60427614899</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2408.163639064399</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C17" t="n">
-        <v>1998.03904837767</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D17" t="n">
-        <v>1593.57511847073</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E17" t="n">
-        <v>1179.234902987627</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F17" t="n">
-        <v>758.2044909413144</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G17" t="n">
-        <v>349.4762068341465</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H17" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>60.62027041897176</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>248.3570846580825</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
-        <v>960.9484844703205</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M17" t="n">
-        <v>1711.124330905096</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N17" t="n">
-        <v>2461.300177339871</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>2461.300177339871</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
-        <v>2990.456875259023</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q17" t="n">
-        <v>2990.456875259023</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R17" t="n">
-        <v>3031.013520948588</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>3031.013520948588</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>2808.807036895447</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>2808.807036895447</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>2808.807036895447</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>2808.807036895447</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>2408.163639064399</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2408.163639064399</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>739.4511123055061</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>605.4560410544518</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>488.5588832738442</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>368.0660672661722</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>259.1061874486768</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>152.1160747630155</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>81.36886179873159</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>516.4265266842705</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L18" t="n">
-        <v>1023.748391676964</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M18" t="n">
-        <v>1023.748391676964</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N18" t="n">
-        <v>1023.748391676964</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O18" t="n">
-        <v>1727.705482222858</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>1727.705482222858</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>2077.549946906842</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
-        <v>2107.109466269472</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>1999.119456383781</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>1839.777592570789</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>1642.426781709008</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>1428.715254702041</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>1215.48208643837</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>1039.156104577263</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>879.7541449410927</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>230.5012452969621</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C19" t="n">
-        <v>60.62027041897176</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D19" t="n">
-        <v>60.62027041897176</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E19" t="n">
-        <v>60.62027041897176</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F19" t="n">
-        <v>60.62027041897176</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G19" t="n">
-        <v>60.62027041897176</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
-        <v>60.62027041897176</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>74.70281982418228</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K19" t="n">
-        <v>229.2551475464203</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L19" t="n">
-        <v>489.1522478264808</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M19" t="n">
-        <v>778.4163042669741</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N19" t="n">
-        <v>1059.255086661224</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O19" t="n">
-        <v>1318.815696987699</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P19" t="n">
-        <v>1524.491137237311</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q19" t="n">
-        <v>1590.019167039822</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1590.019167039822</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1403.627398919732</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.078659896434</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U19" t="n">
-        <v>881.2805124425583</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V19" t="n">
-        <v>881.2805124425583</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="W19" t="n">
-        <v>881.2805124425583</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="X19" t="n">
-        <v>642.9366503022418</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="Y19" t="n">
-        <v>418.2009516910065</v>
+        <v>1350.978107866783</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4576.597211790305</v>
       </c>
       <c r="T20" t="n">
-        <v>4662.18488453114</v>
+        <v>4354.390727737164</v>
       </c>
       <c r="U20" t="n">
-        <v>4494.590496051882</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V20" t="n">
-        <v>4144.752941388363</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="21">
@@ -5832,16 +5834,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.6240469015422</v>
+        <v>3458.450207833939</v>
       </c>
       <c r="C22" t="n">
-        <v>745.5306744632587</v>
+        <v>3287.356835395656</v>
       </c>
       <c r="D22" t="n">
-        <v>586.0360297861687</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E22" t="n">
-        <v>425.1252146544881</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F22" t="n">
-        <v>260.4940887650794</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J22" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K22" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L22" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M22" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N22" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O22" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.642594311473</v>
+        <v>4388.299139470661</v>
       </c>
       <c r="W22" t="n">
-        <v>1567.403314047138</v>
+        <v>4109.229474979536</v>
       </c>
       <c r="X22" t="n">
-        <v>1329.059451906822</v>
+        <v>3870.885612839219</v>
       </c>
       <c r="Y22" t="n">
-        <v>1104.323753295587</v>
+        <v>3646.149914227984</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5977,10 @@
         <v>873.3089913790386</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1521950629048</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H23" t="n">
         <v>93.2436976906228</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C24" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D24" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E24" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F24" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G24" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H24" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>3458.672769375206</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N24" t="n">
-        <v>4332.330861486824</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S24" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T24" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U24" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V24" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W24" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X24" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y24" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>548.5451751656769</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="C25" t="n">
-        <v>548.5451751656769</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="D25" t="n">
-        <v>548.5451751656769</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="E25" t="n">
-        <v>548.5451751656769</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F25" t="n">
-        <v>410.1015439596227</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G25" t="n">
-        <v>242.8511528851661</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J25" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K25" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L25" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M25" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N25" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O25" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.642594311473</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U25" t="n">
-        <v>1339.844446857597</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V25" t="n">
-        <v>1065.958701797119</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="W25" t="n">
-        <v>786.8890373059935</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="X25" t="n">
-        <v>548.5451751656769</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="Y25" t="n">
-        <v>548.5451751656769</v>
+        <v>3730.621005964372</v>
       </c>
     </row>
     <row r="26">
@@ -6306,19 +6308,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>212.9817385874103</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>874.0699105066985</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>874.0699105066985</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N27" t="n">
-        <v>874.0699105066985</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O27" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4144.771357899697</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C28" t="n">
-        <v>4051.026465773143</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D28" t="n">
-        <v>3891.531821096053</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E28" t="n">
-        <v>3730.621005964372</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F28" t="n">
-        <v>3565.989880074963</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G28" t="n">
-        <v>3398.739489000507</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H28" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W28" t="n">
-        <v>4383.115220040014</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X28" t="n">
-        <v>4144.771357899697</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y28" t="n">
-        <v>4144.771357899697</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2151.931129920876</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C29" t="n">
-        <v>1741.806539234146</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D29" t="n">
-        <v>1337.342609327206</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E29" t="n">
-        <v>923.0023938441032</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F29" t="n">
-        <v>501.9719817977906</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G29" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H29" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6494,19 +6496,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4097.330235996674</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V29" t="n">
-        <v>3747.492681333154</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W29" t="n">
-        <v>3363.732380468323</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X29" t="n">
-        <v>2963.088982637275</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y29" t="n">
-        <v>2562.152309585365</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>1228.182536368609</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.182536368609</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N30" t="n">
-        <v>1228.182536368609</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O30" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P30" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4222.119838211426</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C31" t="n">
-        <v>4051.026465773143</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D31" t="n">
-        <v>3891.531821096053</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E31" t="n">
-        <v>3730.621005964372</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F31" t="n">
-        <v>3565.989880074963</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G31" t="n">
-        <v>3398.739489000507</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H31" t="n">
-        <v>3249.132033805963</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I31" t="n">
         <v>3132.785987910289</v>
@@ -6649,22 +6651,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T31" t="n">
-        <v>4662.18488453114</v>
+        <v>4431.619105667321</v>
       </c>
       <c r="U31" t="n">
-        <v>4662.18488453114</v>
+        <v>4148.820958213445</v>
       </c>
       <c r="V31" t="n">
-        <v>4662.18488453114</v>
+        <v>3874.935213152967</v>
       </c>
       <c r="W31" t="n">
-        <v>4662.18488453114</v>
+        <v>3595.865548661841</v>
       </c>
       <c r="X31" t="n">
-        <v>4634.555243216706</v>
+        <v>3357.521686521525</v>
       </c>
       <c r="Y31" t="n">
-        <v>4409.819544605471</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2144.727460069145</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="D32" t="n">
         <v>1734.602869382415</v>
@@ -6725,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2554.948639733635</v>
       </c>
     </row>
     <row r="33">
@@ -6783,19 +6785,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>754.331869609911</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M33" t="n">
-        <v>754.331869609911</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N33" t="n">
-        <v>754.331869609911</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O33" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P33" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4051.026465773143</v>
+        <v>423.8317148059963</v>
       </c>
       <c r="C34" t="n">
-        <v>4051.026465773143</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D34" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4607.710358287496</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4607.710358287496</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4607.710358287496</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U34" t="n">
-        <v>4324.912210833621</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V34" t="n">
-        <v>4051.026465773143</v>
+        <v>1353.680646442718</v>
       </c>
       <c r="W34" t="n">
-        <v>4051.026465773143</v>
+        <v>1074.610981951593</v>
       </c>
       <c r="X34" t="n">
-        <v>4051.026465773143</v>
+        <v>836.267119811276</v>
       </c>
       <c r="Y34" t="n">
-        <v>4051.026465773143</v>
+        <v>611.5314212000407</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
         <v>2052.715036606428</v>
@@ -6935,10 +6937,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7019,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>549.0499539559215</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N36" t="n">
-        <v>1422.708046067539</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O36" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P36" t="n">
         <v>2139.732893541123</v>
@@ -7069,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>423.8317148059963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>252.7383423677128</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
         <v>93.2436976906228</v>
@@ -7120,25 +7122,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S37" t="n">
-        <v>1537.369875986873</v>
+        <v>1406.889855859717</v>
       </c>
       <c r="T37" t="n">
-        <v>1297.821136963575</v>
+        <v>1167.341116836419</v>
       </c>
       <c r="U37" t="n">
-        <v>1015.022989509699</v>
+        <v>884.5429693825431</v>
       </c>
       <c r="V37" t="n">
-        <v>741.1372444492208</v>
+        <v>610.6572243220651</v>
       </c>
       <c r="W37" t="n">
-        <v>648.5674134172316</v>
+        <v>331.5875598309394</v>
       </c>
       <c r="X37" t="n">
-        <v>648.5674134172316</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y37" t="n">
-        <v>423.8317148059963</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7156,28 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D38" t="n">
-        <v>1423.694372010133</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E38" t="n">
-        <v>1009.35415652703</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F38" t="n">
-        <v>588.3237444807176</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7254,22 +7256,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>1210.13812587521</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.182536368609</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N39" t="n">
-        <v>1228.182536368609</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O39" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P39" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.2436976906228</v>
+        <v>798.0226983151792</v>
       </c>
       <c r="C40" t="n">
-        <v>93.2436976906228</v>
+        <v>798.0226983151792</v>
       </c>
       <c r="D40" t="n">
-        <v>93.2436976906228</v>
+        <v>798.0226983151792</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7354,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1593.281623979807</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1406.889855859717</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T40" t="n">
-        <v>1167.341116836419</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U40" t="n">
-        <v>884.5429693825431</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V40" t="n">
-        <v>610.6572243220651</v>
+        <v>1077.092362806305</v>
       </c>
       <c r="W40" t="n">
-        <v>331.5875598309394</v>
+        <v>798.0226983151792</v>
       </c>
       <c r="X40" t="n">
-        <v>93.2436976906228</v>
+        <v>798.0226983151792</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.2436976906228</v>
+        <v>798.0226983151792</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2144.727460069145</v>
+        <v>2018.588815615129</v>
       </c>
       <c r="C41" t="n">
-        <v>1734.602869382415</v>
+        <v>1608.464224928399</v>
       </c>
       <c r="D41" t="n">
-        <v>1734.602869382415</v>
+        <v>1204.000295021459</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>789.6600795383561</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>368.6296674920436</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I41" t="n">
-        <v>93.2436976906228</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583771</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674165</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L41" t="n">
-        <v>1598.180070079655</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M41" t="n">
-        <v>2374.498661071409</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N41" t="n">
-        <v>3127.679677710027</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O41" t="n">
-        <v>3771.310534127132</v>
+        <v>3769.637555890318</v>
       </c>
       <c r="P41" t="n">
-        <v>4300.467232046283</v>
+        <v>4298.794253809469</v>
       </c>
       <c r="Q41" t="n">
-        <v>4621.628238841575</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R41" t="n">
-        <v>4662.18488453114</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T41" t="n">
-        <v>4347.187057885433</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U41" t="n">
-        <v>4090.126566144943</v>
+        <v>3963.987921690927</v>
       </c>
       <c r="V41" t="n">
-        <v>3740.289011481424</v>
+        <v>3614.150367027407</v>
       </c>
       <c r="W41" t="n">
-        <v>3356.528710616592</v>
+        <v>3230.390066162576</v>
       </c>
       <c r="X41" t="n">
-        <v>2955.885312785545</v>
+        <v>2829.746668331528</v>
       </c>
       <c r="Y41" t="n">
-        <v>2554.948639733635</v>
+        <v>2428.809995279618</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>772.0745395771571</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C42" t="n">
-        <v>638.0794683261029</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D42" t="n">
-        <v>521.1823105454953</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E42" t="n">
-        <v>400.6894945378233</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F42" t="n">
-        <v>291.7296147203278</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G42" t="n">
-        <v>184.7395020346666</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H42" t="n">
-        <v>113.9922890703826</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I42" t="n">
-        <v>93.2436976906228</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K42" t="n">
-        <v>549.0499539559215</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="L42" t="n">
-        <v>1210.13812587521</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="M42" t="n">
-        <v>1210.13812587521</v>
+        <v>934.5478001483758</v>
       </c>
       <c r="N42" t="n">
-        <v>1210.13812587521</v>
+        <v>1808.205892259994</v>
       </c>
       <c r="O42" t="n">
-        <v>1228.182536368609</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="P42" t="n">
-        <v>1789.888428857139</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R42" t="n">
-        <v>2139.732893541123</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S42" t="n">
-        <v>2031.742883655432</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T42" t="n">
-        <v>1872.40101984244</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U42" t="n">
-        <v>1675.050208980659</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V42" t="n">
-        <v>1461.338681973692</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W42" t="n">
-        <v>1248.105513710021</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X42" t="n">
-        <v>1071.779531848914</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y42" t="n">
-        <v>912.3775722127438</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>264.3370701289063</v>
+        <v>583.0695517008631</v>
       </c>
       <c r="C43" t="n">
-        <v>93.2436976906228</v>
+        <v>411.9761792625796</v>
       </c>
       <c r="D43" t="n">
-        <v>93.2436976906228</v>
+        <v>252.4815345854897</v>
       </c>
       <c r="E43" t="n">
-        <v>93.2436976906228</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F43" t="n">
-        <v>93.2436976906228</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G43" t="n">
-        <v>93.2436976906228</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H43" t="n">
-        <v>93.2436976906228</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I43" t="n">
-        <v>93.2436976906228</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J43" t="n">
-        <v>107.3262470958333</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K43" t="n">
-        <v>261.8785748180713</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L43" t="n">
-        <v>521.7756750981318</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M43" t="n">
-        <v>811.0397315386251</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N43" t="n">
-        <v>1091.878513932875</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O43" t="n">
-        <v>1351.43912425935</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P43" t="n">
-        <v>1557.114564508962</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q43" t="n">
-        <v>1622.642594311473</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.642594311473</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.642594311473</v>
+        <v>1349.305129629969</v>
       </c>
       <c r="T43" t="n">
-        <v>1563.170187885938</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="U43" t="n">
-        <v>1280.372040432062</v>
+        <v>856.9552967613413</v>
       </c>
       <c r="V43" t="n">
-        <v>1006.486295371584</v>
+        <v>583.0695517008631</v>
       </c>
       <c r="W43" t="n">
-        <v>727.4166308804582</v>
+        <v>583.0695517008631</v>
       </c>
       <c r="X43" t="n">
-        <v>489.0727687401416</v>
+        <v>583.0695517008631</v>
       </c>
       <c r="Y43" t="n">
-        <v>264.3370701289063</v>
+        <v>583.0695517008631</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1435.451969536309</v>
+        <v>2461.166649056344</v>
       </c>
       <c r="C44" t="n">
-        <v>1025.327378849579</v>
+        <v>2051.042058369614</v>
       </c>
       <c r="D44" t="n">
-        <v>620.8634489426399</v>
+        <v>1646.578128462675</v>
       </c>
       <c r="E44" t="n">
-        <v>206.5232334595366</v>
+        <v>1232.237912979571</v>
       </c>
       <c r="F44" t="n">
-        <v>206.5232334595366</v>
+        <v>811.207500933259</v>
       </c>
       <c r="G44" t="n">
-        <v>60.62027041897176</v>
+        <v>402.4792168260911</v>
       </c>
       <c r="H44" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I44" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J44" t="n">
-        <v>60.62027041897176</v>
+        <v>263.7802573176947</v>
       </c>
       <c r="K44" t="n">
-        <v>598.7797715280112</v>
+        <v>801.9397584267342</v>
       </c>
       <c r="L44" t="n">
-        <v>1311.371171340249</v>
+        <v>1514.531158238972</v>
       </c>
       <c r="M44" t="n">
-        <v>1537.064959817039</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N44" t="n">
-        <v>1537.064959817039</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O44" t="n">
-        <v>2180.695816234144</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P44" t="n">
-        <v>2709.852514153296</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q44" t="n">
-        <v>3031.013520948588</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R44" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S44" t="n">
-        <v>3031.013520948588</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T44" t="n">
-        <v>3031.013520948588</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U44" t="n">
-        <v>3031.013520948588</v>
+        <v>3963.987921690927</v>
       </c>
       <c r="V44" t="n">
-        <v>3031.013520948588</v>
+        <v>3614.150367027407</v>
       </c>
       <c r="W44" t="n">
-        <v>2647.253220083756</v>
+        <v>3614.150367027407</v>
       </c>
       <c r="X44" t="n">
-        <v>2246.609822252709</v>
+        <v>3213.50696919636</v>
       </c>
       <c r="Y44" t="n">
-        <v>1845.673149200799</v>
+        <v>2812.57029614445</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>739.4511123055061</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C45" t="n">
-        <v>605.4560410544518</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D45" t="n">
-        <v>488.5588832738442</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E45" t="n">
-        <v>368.0660672661722</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F45" t="n">
-        <v>259.1061874486768</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G45" t="n">
-        <v>152.1160747630155</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H45" t="n">
-        <v>81.36886179873159</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I45" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J45" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K45" t="n">
-        <v>516.4265266842705</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="L45" t="n">
-        <v>1177.514698603559</v>
+        <v>752.6588913730974</v>
       </c>
       <c r="M45" t="n">
-        <v>1195.559109096958</v>
+        <v>872.3969322698847</v>
       </c>
       <c r="N45" t="n">
-        <v>1195.559109096958</v>
+        <v>872.3969322698847</v>
       </c>
       <c r="O45" t="n">
-        <v>1195.559109096958</v>
+        <v>1576.354022815779</v>
       </c>
       <c r="P45" t="n">
-        <v>1757.265001585488</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q45" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R45" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S45" t="n">
-        <v>1999.119456383781</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T45" t="n">
-        <v>1839.777592570789</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U45" t="n">
-        <v>1642.426781709008</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V45" t="n">
-        <v>1428.715254702041</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W45" t="n">
-        <v>1215.48208643837</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X45" t="n">
-        <v>1039.156104577263</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y45" t="n">
-        <v>879.7541449410927</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2590.948474628874</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C46" t="n">
-        <v>2419.855102190591</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D46" t="n">
-        <v>2260.360457513501</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E46" t="n">
-        <v>2099.44964238182</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F46" t="n">
-        <v>1934.818516492412</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G46" t="n">
-        <v>1767.568125417955</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H46" t="n">
-        <v>1617.960670223412</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I46" t="n">
-        <v>1501.614624327738</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J46" t="n">
-        <v>1515.697173732949</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K46" t="n">
-        <v>1670.249501455187</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L46" t="n">
-        <v>1930.146601735247</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M46" t="n">
-        <v>2219.410658175741</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N46" t="n">
-        <v>2500.249440569991</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O46" t="n">
-        <v>2759.810050896465</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P46" t="n">
-        <v>2965.485491146077</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q46" t="n">
-        <v>3031.013520948588</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R46" t="n">
-        <v>3031.013520948588</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S46" t="n">
-        <v>3031.013520948588</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T46" t="n">
-        <v>3031.013520948588</v>
+        <v>1381.420877051361</v>
       </c>
       <c r="U46" t="n">
-        <v>3031.013520948588</v>
+        <v>1107.605689756965</v>
       </c>
       <c r="V46" t="n">
-        <v>3031.013520948588</v>
+        <v>833.7199446964867</v>
       </c>
       <c r="W46" t="n">
-        <v>3031.013520948588</v>
+        <v>554.650280205361</v>
       </c>
       <c r="X46" t="n">
-        <v>3003.383879634154</v>
+        <v>316.3064180650445</v>
       </c>
       <c r="Y46" t="n">
-        <v>2778.648181022919</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7981,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>244.5285255019234</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>851.0436046941925</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>743.321953824879</v>
+        <v>553.1935596277625</v>
       </c>
       <c r="P2" t="n">
-        <v>628.1510783507341</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8055,7 +8057,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
@@ -8064,22 +8066,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>815.3176639755644</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>298.1548016622819</v>
+        <v>329.5449236222966</v>
       </c>
       <c r="O3" t="n">
-        <v>768.8192472281761</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>815.2746908024792</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>851.0436046941925</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>239.9503595415611</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P5" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>523.3250000048945</v>
+        <v>72.04887768380517</v>
       </c>
       <c r="N6" t="n">
-        <v>810.9467736308969</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
@@ -8459,19 +8461,19 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>851.0436046941925</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>850.6656709937663</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>314.6954895033464</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>372.6011972082306</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8529,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>815.3176639755644</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>354.0517478420422</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8687,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>247.2726194786469</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>851.0436046941925</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>600.2632961916099</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
@@ -8766,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>238.7955173052231</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>810.9467736308969</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
         <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>553.908595152622</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>247.2726194786469</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8933,19 +8935,19 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>124.6978301127414</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>850.6656709937663</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9012,16 +9014,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>655.9039391624884</v>
+        <v>674.8624769205911</v>
       </c>
       <c r="N15" t="n">
-        <v>810.9467736308969</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>278.7695353692886</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
-        <v>851.0436046941925</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N17" t="n">
-        <v>850.6656709937663</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O17" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9246,25 +9248,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>568.5608520862971</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>781.8318064390068</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,19 +9482,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>114.0659762175034</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9729,7 +9731,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629454</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9954,22 +9956,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>176.7732988419765</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P27" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10188,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>547.3465691139345</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10431,22 +10433,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>389.300405673794</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>536.3885161299984</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10665,22 +10667,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>214.6393123182359</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P36" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10902,25 +10904,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>75.79096100447751</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11078,10 +11080,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>372.6011972082306</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,25 +11141,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>75.97815626606008</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>247.2726194786469</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11303,10 +11305,10 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>321.2637481709749</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
@@ -11318,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,25 +11378,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>75.79096100447751</v>
+        <v>178.5117997957783</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -22547,25 +22549,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>111.3960752911885</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>293.7451715275229</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22705,7 +22707,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -22720,10 +22722,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>126.9450269688242</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>268.5088824035104</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -22787,16 +22789,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.1010028679868</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>384.4291221252312</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -22832,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22939,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
@@ -22957,10 +22959,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>110.2688270688022</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,16 +22989,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23005,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23021,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23036,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23075,16 +23077,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>128.8467539722719</v>
+        <v>169.7276164964508</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23176,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>70.43669735679175</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -23224,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -23242,10 +23244,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -23267,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>304.2237906529627</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,13 +23317,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>33.73815448733899</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>67.1652615331906</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>55.35263051300473</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>81.95418147421526</v>
+        <v>169.7276164964508</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300456</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>57.06664624006493</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23744,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H17" t="n">
-        <v>21.83203534753619</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>19.10615505383078</v>
       </c>
       <c r="C19" t="n">
-        <v>1.200273584690251</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -23953,10 +23955,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23984,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>49.19646844041357</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4.8745592198064</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
@@ -24184,10 +24186,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>221.5920803845231</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24215,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="G23" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24373,7 +24375,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>25.92561973652101</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>134.9699070214199</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>76.57499550861168</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24698,7 +24700,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24734,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>49.19646844041395</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,19 +24891,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884007</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>208.6070786176241</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24920,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>42.06483528720071</v>
       </c>
     </row>
     <row r="33">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>30.49021016014719</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
@@ -25129,19 +25131,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>4.874559219806031</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25154,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25312,10 +25314,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>55.35263051300467</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>184.634835124545</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25394,13 +25396,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25409,7 +25411,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>53.42716423559462</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>55.35263051300471</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>130.352642708244</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>42.06483528720082</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25789,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>178.2755692717851</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>29.69708307246052</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>58.22935725061961</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25874,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>260.1970678559369</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,19 +26076,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>208.6070786176241</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>601560.4511238014</v>
+        <v>504905.9466061472</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>601560.4511238012</v>
+        <v>504905.9466061472</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>601560.4511238012</v>
+        <v>760217.0938180527</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>601560.4511238015</v>
+        <v>760217.0938180527</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>601560.4511238012</v>
+        <v>760217.0938180527</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>601560.4511238011</v>
+        <v>768793.0311188215</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>768793.0311188216</v>
+        <v>768793.0311188217</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>768793.0311188216</v>
+        <v>768793.0311188214</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>768793.0311188215</v>
+        <v>768793.0311188216</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>768793.0311188216</v>
+        <v>768793.0311188217</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>768793.0311188216</v>
+        <v>768793.0311188215</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>768793.0311188217</v>
+        <v>760217.0938180527</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>601560.4511238012</v>
+        <v>760217.0938180528</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>249328.9499234289</v>
+        <v>209284.9156047157</v>
       </c>
       <c r="C2" t="n">
-        <v>249328.9499234289</v>
+        <v>209284.9156047158</v>
       </c>
       <c r="D2" t="n">
-        <v>249328.9499234289</v>
+        <v>315060.5169791576</v>
       </c>
       <c r="E2" t="n">
-        <v>249328.9499234289</v>
+        <v>315060.5169791577</v>
       </c>
       <c r="F2" t="n">
-        <v>249328.9499234289</v>
+        <v>315060.5169791575</v>
       </c>
       <c r="G2" t="n">
-        <v>249328.9499234289</v>
+        <v>318613.5342886032</v>
       </c>
       <c r="H2" t="n">
+        <v>318613.5342886033</v>
+      </c>
+      <c r="I2" t="n">
         <v>318613.5342886032</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>318613.5342886033</v>
-      </c>
-      <c r="J2" t="n">
-        <v>318613.5342886032</v>
       </c>
       <c r="K2" t="n">
         <v>318613.5342886032</v>
@@ -26350,10 +26352,10 @@
         <v>318613.5342886032</v>
       </c>
       <c r="O2" t="n">
-        <v>318613.5342886032</v>
+        <v>315060.5169791576</v>
       </c>
       <c r="P2" t="n">
-        <v>249328.9499234289</v>
+        <v>315060.5169791576</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>253940.5860452134</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>193389.0504351682</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,22 +26380,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5731.72800046337</v>
       </c>
       <c r="H3" t="n">
-        <v>110026.1786092112</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>198261.625418768</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>157566.97087753</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58115.34828808577</v>
+        <v>48718.21749193841</v>
       </c>
       <c r="C4" t="n">
-        <v>58115.34828808578</v>
+        <v>48718.21749193841</v>
       </c>
       <c r="D4" t="n">
-        <v>58115.34828808578</v>
+        <v>73540.57063561928</v>
       </c>
       <c r="E4" t="n">
-        <v>58115.34828808578</v>
+        <v>73540.5706356193</v>
       </c>
       <c r="F4" t="n">
-        <v>58115.34828808578</v>
+        <v>73540.5706356193</v>
       </c>
       <c r="G4" t="n">
-        <v>58115.34828808578</v>
+        <v>74374.35696474132</v>
       </c>
       <c r="H4" t="n">
-        <v>74374.35696474131</v>
+        <v>74374.35696474132</v>
       </c>
       <c r="I4" t="n">
         <v>74374.35696474131</v>
@@ -26445,7 +26447,7 @@
         <v>74374.35696474131</v>
       </c>
       <c r="L4" t="n">
-        <v>74374.35696474131</v>
+        <v>74374.35696474132</v>
       </c>
       <c r="M4" t="n">
         <v>74374.35696474131</v>
@@ -26454,10 +26456,10 @@
         <v>74374.35696474131</v>
       </c>
       <c r="O4" t="n">
-        <v>74374.35696474131</v>
+        <v>73540.57063561928</v>
       </c>
       <c r="P4" t="n">
-        <v>58115.34828808578</v>
+        <v>73540.5706356193</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79699.00551841853</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>79699.00551841853</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>79699.00551841853</v>
+        <v>103221.3467848949</v>
       </c>
       <c r="E5" t="n">
-        <v>46071.40551841853</v>
+        <v>69593.74678489495</v>
       </c>
       <c r="F5" t="n">
-        <v>46071.40551841853</v>
+        <v>69593.74678489495</v>
       </c>
       <c r="G5" t="n">
-        <v>46071.40551841853</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="H5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>70865.21024487332</v>
+        <v>69593.74678489495</v>
       </c>
       <c r="P5" t="n">
-        <v>46071.40551841853</v>
+        <v>69593.74678489495</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-142425.9899282889</v>
+        <v>-79757.87685883429</v>
       </c>
       <c r="C6" t="n">
-        <v>111514.5961169246</v>
+        <v>95197.6330342798</v>
       </c>
       <c r="D6" t="n">
-        <v>111514.5961169245</v>
+        <v>-55090.45087652473</v>
       </c>
       <c r="E6" t="n">
-        <v>145142.1961169246</v>
+        <v>171926.1995586434</v>
       </c>
       <c r="F6" t="n">
-        <v>145142.1961169246</v>
+        <v>171926.1995586433</v>
       </c>
       <c r="G6" t="n">
-        <v>145142.1961169246</v>
+        <v>167642.2390785252</v>
       </c>
       <c r="H6" t="n">
-        <v>63347.78846977737</v>
+        <v>173373.9670789887</v>
       </c>
       <c r="I6" t="n">
-        <v>173373.9670789887</v>
+        <v>173373.9670789886</v>
       </c>
       <c r="J6" t="n">
-        <v>-24887.65833977949</v>
+        <v>36779.16627309372</v>
       </c>
       <c r="K6" t="n">
         <v>173373.9670789886</v>
       </c>
       <c r="L6" t="n">
-        <v>173373.9670789886</v>
+        <v>15806.99620145862</v>
       </c>
       <c r="M6" t="n">
         <v>173373.9670789886</v>
@@ -26558,10 +26560,10 @@
         <v>173373.9670789886</v>
       </c>
       <c r="O6" t="n">
-        <v>173373.9670789886</v>
+        <v>171926.1995586433</v>
       </c>
       <c r="P6" t="n">
-        <v>145142.1961169246</v>
+        <v>171926.1995586433</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>757.753380237147</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="E4" t="n">
-        <v>757.753380237147</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="F4" t="n">
-        <v>757.753380237147</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="G4" t="n">
-        <v>757.753380237147</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="H4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>1165.546221132785</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="P4" t="n">
-        <v>757.753380237147</v>
+        <v>1144.633993172614</v>
       </c>
     </row>
   </sheetData>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>622.5704228025888</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,22 +27026,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>20.91222796017064</v>
       </c>
       <c r="H4" t="n">
-        <v>407.7928408956379</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>757.7533802371468</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>622.5704228025886</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>622.5704228025888</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>20.91222796017064</v>
       </c>
       <c r="P4" t="n">
-        <v>407.7928408956379</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>149.0431274390785</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>650.1321781990958</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="P2" t="n">
-        <v>534.50171506985</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,22 +34786,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>244.9614082685319</v>
+        <v>276.3515302285466</v>
       </c>
       <c r="O3" t="n">
-        <v>711.0677682281761</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>719.7892927396343</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>147.0380687849417</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P5" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7607162664771</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="N6" t="n">
-        <v>757.753380237147</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
@@ -35179,19 +35181,19 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>757.753380237147</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>757.753380237147</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>221.5057138775633</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>282.5673928090785</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>757.753380237147</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>300.8583544482922</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>173.9490281453389</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>757.753380237147</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>507.3510054349906</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
         <v>324.4050573689818</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>181.2312335668056</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>757.753380237147</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>499.6489601498182</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>173.9490281453389</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35653,19 +35655,19 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>31.40760565569591</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>757.753380237147</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35732,16 +35734,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>598.339655424071</v>
+        <v>617.2981931821737</v>
       </c>
       <c r="N15" t="n">
-        <v>757.753380237147</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>189.6331456960715</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
-        <v>757.753380237147</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N17" t="n">
-        <v>757.753380237147</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35966,25 +35968,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>512.4463282754481</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>724.2675227005893</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>56.50169247908597</v>
       </c>
       <c r="N21" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36449,7 +36451,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629454</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>120.9475160573611</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P27" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>491.2320453030855</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>478.6370371299984</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>156.8878333182359</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P36" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>18.22667726606008</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P39" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37798,10 +37800,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>282.5673928090785</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>18.22667726606008</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P42" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>173.9490281453389</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38023,10 +38025,10 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>227.9735237139294</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
@@ -38038,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>18.22667726606008</v>
+        <v>120.9475160573609</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>823546.9742810384</v>
+        <v>820763.9851404619</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5312247.587582167</v>
+        <v>5312247.587582165</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3783355.816622881</v>
+        <v>3783355.816622884</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>197.6281584307293</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>22.5321891626516</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -727,7 +727,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -879,13 +879,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>7.770085442703907</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="5">
@@ -898,19 +898,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>20.21187914086494</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>262.3231864634519</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>37.84255357379566</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
@@ -1122,7 +1122,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>102.3674638295713</v>
       </c>
       <c r="U8" t="n">
-        <v>84.76227032663424</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>98.9457413571089</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>42.43741174507654</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>136.9685545280288</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -1387,10 +1387,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>3.575621745596433</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
@@ -1593,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059087</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>84.76227032663424</v>
+        <v>127.7768929815749</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1675,7 +1675,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>165.421695385058</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1858,10 +1858,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>166.7165542762732</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.73179601342657</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>153.0251390105127</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -2329,13 +2329,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>367.6236394854355</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>42.43741174507654</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>136.1769805884533</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>165.9184445944652</v>
+        <v>218.0291057078766</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2809,7 +2809,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -2845,13 +2845,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>123.8394724344234</v>
       </c>
       <c r="U29" t="n">
-        <v>119.8051733265733</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>228.2601210751809</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -3034,7 +3034,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -3049,7 +3049,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3097,7 +3097,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.8624710341901</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>266.2723283900672</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>129.1752199258842</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3514,16 +3514,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>367.6236394854355</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>123.8394724344234</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>105.8745427447691</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>80.39790293131064</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3726,7 +3726,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3754,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>274.2883585578521</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>273.7062967663601</v>
       </c>
     </row>
     <row r="42">
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>204.5710655076032</v>
       </c>
       <c r="U43" t="n">
-        <v>250.2730829068766</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>347.8896106172249</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3994,10 +3994,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,10 +4036,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>130.4982913525424</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U46" t="n">
-        <v>271.0770354214525</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.76508562960205</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="C2" t="n">
-        <v>41.76508562960205</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D2" t="n">
         <v>41.76508562960205</v>
@@ -4330,25 +4330,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>41.76508562960205</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N2" t="n">
-        <v>1075.450954962253</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O2" t="n">
-        <v>1530.854701124212</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2065.494494447121</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1843.288010393979</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1586.22751865349</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V2" t="n">
-        <v>1236.38996398997</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="W2" t="n">
-        <v>852.6296631251389</v>
+        <v>1447.433488874781</v>
       </c>
       <c r="X2" t="n">
-        <v>451.9862652940915</v>
+        <v>1046.790091043734</v>
       </c>
       <c r="Y2" t="n">
-        <v>451.9862652940915</v>
+        <v>645.8534179918237</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922355</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>234.5779431922355</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>751.4208778585607</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="N3" t="n">
-        <v>1025.008892784822</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O3" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U4" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V4" t="n">
-        <v>503.2668642681101</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W4" t="n">
-        <v>495.4182931138637</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X4" t="n">
-        <v>495.4182931138637</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y4" t="n">
-        <v>495.4182931138637</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>893.3361278988716</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="C5" t="n">
-        <v>483.2115372121417</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="D5" t="n">
-        <v>483.2115372121417</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E5" t="n">
-        <v>483.2115372121417</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F5" t="n">
-        <v>62.18112516582926</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G5" t="n">
         <v>41.76508562960205</v>
@@ -4567,22 +4567,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.450954962253</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N5" t="n">
-        <v>1592.293889628578</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O5" t="n">
-        <v>2088.254281480102</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P5" t="n">
         <v>2088.254281480102</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1688.000290654555</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.493980615271</v>
+        <v>1688.000290654555</v>
       </c>
       <c r="X5" t="n">
-        <v>1704.493980615271</v>
+        <v>1287.356892823507</v>
       </c>
       <c r="Y5" t="n">
-        <v>1303.557307563361</v>
+        <v>1287.356892823507</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4652,22 +4652,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1207.227134123859</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1221.566882129793</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1221.566882129793</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O6" t="n">
-        <v>1221.566882129793</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>367.429305553252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>196.3359331149685</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>196.3359331149685</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>196.3359331149685</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>196.3359331149685</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>196.3359331149685</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4755,22 +4755,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V7" t="n">
-        <v>1297.278237189974</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W7" t="n">
-        <v>1018.208572698848</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X7" t="n">
-        <v>779.8647105585317</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y7" t="n">
-        <v>555.1290119472964</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2547.518411739271</v>
+        <v>2137.393821052541</v>
       </c>
       <c r="C8" t="n">
         <v>2137.393821052541</v>
@@ -4804,25 +4804,25 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J8" t="n">
-        <v>345.7561909215634</v>
+        <v>304.3369030072596</v>
       </c>
       <c r="K8" t="n">
-        <v>883.9156920306029</v>
+        <v>842.4964041162991</v>
       </c>
       <c r="L8" t="n">
-        <v>1596.507091842841</v>
+        <v>1555.087803928537</v>
       </c>
       <c r="M8" t="n">
-        <v>2372.825682834595</v>
+        <v>2331.406394920291</v>
       </c>
       <c r="N8" t="n">
-        <v>3126.006699473213</v>
+        <v>3084.587411558909</v>
       </c>
       <c r="O8" t="n">
-        <v>3769.637555890318</v>
+        <v>3728.218267976014</v>
       </c>
       <c r="P8" t="n">
-        <v>4298.794253809469</v>
+        <v>4257.374965895166</v>
       </c>
       <c r="Q8" t="n">
         <v>4578.535972690457</v>
@@ -4831,25 +4831,25 @@
         <v>4578.535972690457</v>
       </c>
       <c r="S8" t="n">
-        <v>4578.535972690457</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T8" t="n">
-        <v>4578.535972690457</v>
+        <v>4339.853418868829</v>
       </c>
       <c r="U8" t="n">
-        <v>4492.917517815069</v>
+        <v>4082.792927128339</v>
       </c>
       <c r="V8" t="n">
-        <v>4143.079963151549</v>
+        <v>3732.95537246482</v>
       </c>
       <c r="W8" t="n">
-        <v>3759.319662286718</v>
+        <v>3349.195071599988</v>
       </c>
       <c r="X8" t="n">
-        <v>3358.676264455671</v>
+        <v>2948.551673768941</v>
       </c>
       <c r="Y8" t="n">
-        <v>2957.739591403761</v>
+        <v>2547.615000717031</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J9" t="n">
-        <v>91.57071945380915</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K9" t="n">
-        <v>91.57071945380915</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="L9" t="n">
-        <v>91.57071945380915</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="M9" t="n">
-        <v>934.5478001483758</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="N9" t="n">
-        <v>1808.205892259994</v>
+        <v>1404.543305395785</v>
       </c>
       <c r="O9" t="n">
-        <v>2138.059915304309</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="P9" t="n">
-        <v>2138.059915304309</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="Q9" t="n">
-        <v>2138.059915304309</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R9" t="n">
         <v>2138.059915304309</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1109.756390606671</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C10" t="n">
-        <v>1009.811197316662</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D10" t="n">
-        <v>850.3165526395721</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E10" t="n">
-        <v>689.4057375078917</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F10" t="n">
-        <v>524.7746116184829</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G10" t="n">
-        <v>357.5242205440263</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H10" t="n">
-        <v>207.916765349483</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I10" t="n">
         <v>91.57071945380915</v>
@@ -4986,28 +4986,28 @@
         <v>1620.969616074659</v>
       </c>
       <c r="R10" t="n">
-        <v>1535.696897750059</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S10" t="n">
-        <v>1349.305129629969</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T10" t="n">
-        <v>1109.756390606671</v>
+        <v>1578.103543604885</v>
       </c>
       <c r="U10" t="n">
-        <v>1109.756390606671</v>
+        <v>1295.305396151009</v>
       </c>
       <c r="V10" t="n">
-        <v>1109.756390606671</v>
+        <v>1021.419651090531</v>
       </c>
       <c r="W10" t="n">
-        <v>1109.756390606671</v>
+        <v>742.3499865994054</v>
       </c>
       <c r="X10" t="n">
-        <v>1109.756390606671</v>
+        <v>504.0061244590888</v>
       </c>
       <c r="Y10" t="n">
-        <v>1109.756390606671</v>
+        <v>279.2704258478535</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2153.869890821028</v>
+        <v>2547.518411739271</v>
       </c>
       <c r="C11" t="n">
-        <v>1743.745300134298</v>
+        <v>2137.393821052541</v>
       </c>
       <c r="D11" t="n">
-        <v>1339.281370227359</v>
+        <v>1732.929891145602</v>
       </c>
       <c r="E11" t="n">
-        <v>924.9411547442555</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F11" t="n">
-        <v>503.9107426979431</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G11" t="n">
-        <v>95.18245859077524</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H11" t="n">
-        <v>91.57071945380915</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I11" t="n">
         <v>91.57071945380915</v>
@@ -5068,25 +5068,25 @@
         <v>4578.535972690457</v>
       </c>
       <c r="S11" t="n">
-        <v>4578.535972690457</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T11" t="n">
-        <v>4356.329488637316</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U11" t="n">
-        <v>4099.268996896826</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="V11" t="n">
-        <v>3749.431442233307</v>
+        <v>3871.210858767897</v>
       </c>
       <c r="W11" t="n">
-        <v>3365.671141368475</v>
+        <v>3487.450557903066</v>
       </c>
       <c r="X11" t="n">
-        <v>2965.027743537428</v>
+        <v>3086.807160072018</v>
       </c>
       <c r="Y11" t="n">
-        <v>2564.091070485518</v>
+        <v>2685.870487020108</v>
       </c>
     </row>
     <row r="12">
@@ -5126,22 +5126,22 @@
         <v>740.1898332817411</v>
       </c>
       <c r="L12" t="n">
-        <v>740.1898332817411</v>
+        <v>1401.278005201029</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1898332817411</v>
+        <v>1401.278005201029</v>
       </c>
       <c r="N12" t="n">
-        <v>1613.847925393359</v>
+        <v>1401.278005201029</v>
       </c>
       <c r="O12" t="n">
-        <v>1613.847925393359</v>
+        <v>1576.354022815779</v>
       </c>
       <c r="P12" t="n">
-        <v>2108.500395941679</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q12" t="n">
-        <v>2108.500395941679</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R12" t="n">
         <v>2138.059915304309</v>
@@ -5223,25 +5223,25 @@
         <v>1620.969616074659</v>
       </c>
       <c r="R13" t="n">
-        <v>1535.696897750059</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S13" t="n">
-        <v>1349.305129629969</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T13" t="n">
-        <v>1109.756390606671</v>
+        <v>1390.40383721084</v>
       </c>
       <c r="U13" t="n">
-        <v>826.9582431527954</v>
+        <v>1107.605689756965</v>
       </c>
       <c r="V13" t="n">
-        <v>553.0724980923173</v>
+        <v>833.7199446964867</v>
       </c>
       <c r="W13" t="n">
-        <v>274.0028336011917</v>
+        <v>554.650280205361</v>
       </c>
       <c r="X13" t="n">
-        <v>91.57071945380915</v>
+        <v>316.3064180650445</v>
       </c>
       <c r="Y13" t="n">
         <v>91.57071945380915</v>
@@ -5305,22 +5305,22 @@
         <v>4578.535972690457</v>
       </c>
       <c r="S14" t="n">
-        <v>4578.535972690457</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T14" t="n">
-        <v>4578.535972690457</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U14" t="n">
-        <v>4492.917517815069</v>
+        <v>4091.980844763159</v>
       </c>
       <c r="V14" t="n">
-        <v>4143.079963151549</v>
+        <v>3742.14329009964</v>
       </c>
       <c r="W14" t="n">
-        <v>3759.319662286718</v>
+        <v>3358.382989234808</v>
       </c>
       <c r="X14" t="n">
-        <v>3358.676264455671</v>
+        <v>2957.739591403761</v>
       </c>
       <c r="Y14" t="n">
         <v>2957.739591403761</v>
@@ -5357,28 +5357,28 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J15" t="n">
-        <v>91.57071945380915</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K15" t="n">
-        <v>91.57071945380915</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="L15" t="n">
-        <v>91.57071945380915</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="M15" t="n">
-        <v>702.6959307041611</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="N15" t="n">
-        <v>1576.354022815779</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="O15" t="n">
-        <v>1576.354022815779</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="P15" t="n">
-        <v>2138.059915304309</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="Q15" t="n">
-        <v>2138.059915304309</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R15" t="n">
         <v>2138.059915304309</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1180.904569754946</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C16" t="n">
-        <v>1009.811197316662</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D16" t="n">
-        <v>850.3165526395721</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E16" t="n">
-        <v>689.4057375078917</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F16" t="n">
-        <v>524.7746116184829</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G16" t="n">
-        <v>357.5242205440263</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H16" t="n">
-        <v>207.916765349483</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I16" t="n">
         <v>91.57071945380915</v>
@@ -5460,28 +5460,28 @@
         <v>1620.969616074659</v>
       </c>
       <c r="R16" t="n">
-        <v>1535.696897750059</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S16" t="n">
-        <v>1535.696897750059</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T16" t="n">
-        <v>1535.696897750059</v>
+        <v>1390.40383721084</v>
       </c>
       <c r="U16" t="n">
-        <v>1535.696897750059</v>
+        <v>1107.605689756965</v>
       </c>
       <c r="V16" t="n">
-        <v>1535.696897750059</v>
+        <v>833.7199446964867</v>
       </c>
       <c r="W16" t="n">
-        <v>1535.696897750059</v>
+        <v>554.650280205361</v>
       </c>
       <c r="X16" t="n">
-        <v>1535.696897750059</v>
+        <v>316.3064180650445</v>
       </c>
       <c r="Y16" t="n">
-        <v>1368.60427614899</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
         <v>93.2436976906228</v>
@@ -5545,22 +5545,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="18">
@@ -5594,19 +5594,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>549.0499539559215</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>1266.074801429505</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N18" t="n">
-        <v>2139.732893541123</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1350.978107866783</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1350.978107866783</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1350.978107866783</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>1350.978107866783</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>1350.978107866783</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>1350.978107866783</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2151.931129920876</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>1741.806539234146</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1337.342609327206</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>923.0023938441032</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
         <v>93.2436976906228</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4576.597211790305</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4354.390727737164</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4097.330235996674</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V20" t="n">
-        <v>3747.492681333154</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W20" t="n">
-        <v>3363.732380468323</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X20" t="n">
-        <v>2963.088982637275</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y20" t="n">
-        <v>2562.152309585365</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>1210.13812587521</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>1266.074801429505</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3458.450207833939</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>3287.356835395656</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>4662.18488453114</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V22" t="n">
-        <v>4388.299139470661</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W22" t="n">
-        <v>4109.229474979536</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X22" t="n">
-        <v>3870.885612839219</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y22" t="n">
-        <v>3646.149914227984</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
         <v>93.2436976906228</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4390.520398086449</v>
+        <v>1579.776521841699</v>
       </c>
       <c r="T25" t="n">
-        <v>4150.971659063151</v>
+        <v>1579.776521841699</v>
       </c>
       <c r="U25" t="n">
-        <v>3868.173511609275</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="V25" t="n">
-        <v>3730.621005964372</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W25" t="n">
-        <v>3730.621005964372</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X25" t="n">
-        <v>3730.621005964372</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y25" t="n">
-        <v>3730.621005964372</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="C26" t="n">
         <v>2139.066799289355</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4494.590496051882</v>
+        <v>4084.465905365153</v>
       </c>
       <c r="V26" t="n">
-        <v>4144.752941388363</v>
+        <v>3734.628350701634</v>
       </c>
       <c r="W26" t="n">
-        <v>3760.992640523532</v>
+        <v>3350.868049836802</v>
       </c>
       <c r="X26" t="n">
-        <v>3360.349242692484</v>
+        <v>2950.224652005755</v>
       </c>
       <c r="Y26" t="n">
-        <v>2959.412569640574</v>
+        <v>2549.287978953845</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6414,22 +6414,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.642594311473</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.642594311473</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W28" t="n">
-        <v>1622.642594311473</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X28" t="n">
-        <v>1595.012952997039</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y28" t="n">
-        <v>1370.277254385804</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2238.282892603803</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>1828.158301917073</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1423.694372010133</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>1009.35415652703</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
         <v>179.5954603735497</v>
@@ -6493,22 +6493,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4401.813433128853</v>
       </c>
       <c r="U29" t="n">
-        <v>4183.681998679601</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="V29" t="n">
-        <v>3833.844444016082</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W29" t="n">
-        <v>3450.08414315125</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X29" t="n">
-        <v>3049.440745320202</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y29" t="n">
-        <v>2648.504072268292</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4431.619105667321</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>4148.820958213445</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V31" t="n">
-        <v>3874.935213152967</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W31" t="n">
-        <v>3595.865548661841</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X31" t="n">
-        <v>3357.521686521525</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2144.727460069145</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C32" t="n">
-        <v>1734.602869382415</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6730,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y32" t="n">
-        <v>2554.948639733635</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="33">
@@ -6779,22 +6779,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>423.0977207349383</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M33" t="n">
-        <v>1266.074801429505</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N33" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P33" t="n">
         <v>2139.732893541123</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>423.8317148059963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>252.7383423677128</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
         <v>93.2436976906228</v>
@@ -6888,22 +6888,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.642594311473</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V34" t="n">
-        <v>1353.680646442718</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W34" t="n">
-        <v>1074.610981951593</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X34" t="n">
-        <v>836.267119811276</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y34" t="n">
-        <v>611.5314212000407</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7119,25 +7119,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1406.889855859717</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1167.341116836419</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U37" t="n">
-        <v>884.5429693825431</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V37" t="n">
-        <v>610.6572243220651</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W37" t="n">
-        <v>331.5875598309394</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X37" t="n">
-        <v>93.2436976906228</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y37" t="n">
         <v>93.2436976906228</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E38" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F38" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H38" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7204,22 +7204,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4401.813433128853</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>798.0226983151792</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>798.0226983151792</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>798.0226983151792</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T40" t="n">
-        <v>1350.978107866783</v>
+        <v>1355.040823230463</v>
       </c>
       <c r="U40" t="n">
-        <v>1350.978107866783</v>
+        <v>1072.242675776587</v>
       </c>
       <c r="V40" t="n">
-        <v>1077.092362806305</v>
+        <v>798.3569307161094</v>
       </c>
       <c r="W40" t="n">
-        <v>798.0226983151792</v>
+        <v>519.2872662249838</v>
       </c>
       <c r="X40" t="n">
-        <v>798.0226983151792</v>
+        <v>280.9434040846672</v>
       </c>
       <c r="Y40" t="n">
-        <v>798.0226983151792</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2018.588815615129</v>
+        <v>2143.054481832331</v>
       </c>
       <c r="C41" t="n">
-        <v>1608.464224928399</v>
+        <v>1732.929891145602</v>
       </c>
       <c r="D41" t="n">
-        <v>1204.000295021459</v>
+        <v>1732.929891145602</v>
       </c>
       <c r="E41" t="n">
-        <v>789.6600795383561</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F41" t="n">
-        <v>368.6296674920436</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G41" t="n">
-        <v>91.57071945380915</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H41" t="n">
-        <v>91.57071945380915</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I41" t="n">
         <v>91.57071945380915</v>
@@ -7426,13 +7426,13 @@
         <v>3126.006699473213</v>
       </c>
       <c r="O41" t="n">
-        <v>3769.637555890318</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P41" t="n">
-        <v>4298.794253809469</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q41" t="n">
-        <v>4578.535972690457</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R41" t="n">
         <v>4578.535972690457</v>
@@ -7456,7 +7456,7 @@
         <v>2829.746668331528</v>
       </c>
       <c r="Y41" t="n">
-        <v>2428.809995279618</v>
+        <v>2553.275661496821</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J42" t="n">
-        <v>91.57071945380915</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K42" t="n">
-        <v>91.57071945380915</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="L42" t="n">
-        <v>91.57071945380915</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="M42" t="n">
-        <v>934.5478001483758</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="N42" t="n">
-        <v>1808.205892259994</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="O42" t="n">
-        <v>2138.059915304309</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="P42" t="n">
-        <v>2138.059915304309</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="Q42" t="n">
-        <v>2138.059915304309</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R42" t="n">
         <v>2138.059915304309</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>583.0695517008631</v>
+        <v>258.8211105282658</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9761792625796</v>
+        <v>258.8211105282658</v>
       </c>
       <c r="D43" t="n">
-        <v>252.4815345854897</v>
+        <v>258.8211105282658</v>
       </c>
       <c r="E43" t="n">
-        <v>91.57071945380915</v>
+        <v>258.8211105282658</v>
       </c>
       <c r="F43" t="n">
-        <v>91.57071945380915</v>
+        <v>258.8211105282658</v>
       </c>
       <c r="G43" t="n">
         <v>91.57071945380915</v>
@@ -7593,28 +7593,28 @@
         <v>1620.969616074659</v>
       </c>
       <c r="R43" t="n">
-        <v>1535.696897750059</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S43" t="n">
-        <v>1349.305129629969</v>
+        <v>1434.577847954569</v>
       </c>
       <c r="T43" t="n">
-        <v>1109.756390606671</v>
+        <v>1227.940408047899</v>
       </c>
       <c r="U43" t="n">
-        <v>856.9552967613413</v>
+        <v>945.1422605940236</v>
       </c>
       <c r="V43" t="n">
-        <v>583.0695517008631</v>
+        <v>671.2565155335454</v>
       </c>
       <c r="W43" t="n">
-        <v>583.0695517008631</v>
+        <v>671.2565155335454</v>
       </c>
       <c r="X43" t="n">
-        <v>583.0695517008631</v>
+        <v>671.2565155335454</v>
       </c>
       <c r="Y43" t="n">
-        <v>583.0695517008631</v>
+        <v>446.5208169223101</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2461.166649056344</v>
+        <v>2236.609914366989</v>
       </c>
       <c r="C44" t="n">
-        <v>2051.042058369614</v>
+        <v>1826.485323680259</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.578128462675</v>
+        <v>1422.02139377332</v>
       </c>
       <c r="E44" t="n">
-        <v>1232.237912979571</v>
+        <v>1007.681178290216</v>
       </c>
       <c r="F44" t="n">
-        <v>811.207500933259</v>
+        <v>586.6507662439038</v>
       </c>
       <c r="G44" t="n">
-        <v>402.4792168260911</v>
+        <v>177.922482136736</v>
       </c>
       <c r="H44" t="n">
-        <v>91.57071945380915</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I44" t="n">
         <v>91.57071945380915</v>
@@ -7684,16 +7684,16 @@
         <v>3963.987921690927</v>
       </c>
       <c r="V44" t="n">
-        <v>3614.150367027407</v>
+        <v>3832.171465779268</v>
       </c>
       <c r="W44" t="n">
-        <v>3614.150367027407</v>
+        <v>3448.411164914436</v>
       </c>
       <c r="X44" t="n">
-        <v>3213.50696919636</v>
+        <v>3047.767767083389</v>
       </c>
       <c r="Y44" t="n">
-        <v>2812.57029614445</v>
+        <v>2646.831094031479</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J45" t="n">
-        <v>91.57071945380915</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K45" t="n">
-        <v>91.57071945380915</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="L45" t="n">
-        <v>752.6588913730974</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="M45" t="n">
-        <v>872.3969322698847</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="N45" t="n">
-        <v>872.3969322698847</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="O45" t="n">
-        <v>1576.354022815779</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="P45" t="n">
-        <v>2138.059915304309</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="Q45" t="n">
-        <v>2138.059915304309</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R45" t="n">
         <v>2138.059915304309</v>
@@ -7836,7 +7836,7 @@
         <v>1620.969616074659</v>
       </c>
       <c r="T46" t="n">
-        <v>1381.420877051361</v>
+        <v>1390.40383721084</v>
       </c>
       <c r="U46" t="n">
         <v>1107.605689756965</v>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>553.1935596277625</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8060,25 +8060,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>329.5449236222966</v>
+        <v>559.8834573428705</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>615.3537948270711</v>
@@ -8230,10 +8230,10 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>594.1598684051008</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>337.8664545776218</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
@@ -8300,16 +8300,16 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>72.04887768380517</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
@@ -8318,7 +8318,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>288.2389282559852</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
@@ -8473,7 +8473,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>372.6011972082306</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8531,22 +8531,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>935.6763147186165</v>
+        <v>724.2575066402586</v>
       </c>
       <c r="O9" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
@@ -8555,7 +8555,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8774,25 +8774,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>234.5959412371208</v>
       </c>
       <c r="P12" t="n">
-        <v>553.908595152622</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,19 +9005,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476414</v>
       </c>
       <c r="M15" t="n">
-        <v>674.8624769205911</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>57.751479</v>
@@ -9026,10 +9026,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,22 +9242,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>781.8318064390068</v>
+        <v>90.72066712971599</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
-        <v>114.0659762175034</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
         <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,22 +9719,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>424.7983178153489</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>518.93822867521</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,25 +10427,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>389.300405673794</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>234.4087459755385</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11074,16 +11074,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>743.321953824879</v>
+        <v>660.5179804876379</v>
       </c>
       <c r="P41" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>372.6011972082306</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476414</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476414</v>
       </c>
       <c r="M45" t="n">
-        <v>178.5117997957783</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>208.4908094371152</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
@@ -22597,16 +22597,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>111.3960752911885</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -22722,10 +22722,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22767,13 +22767,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>268.5088824035104</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="5">
@@ -22786,19 +22786,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>384.4291221252312</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -22843,16 +22843,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>84.01599265343225</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -22941,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
@@ -22959,10 +22959,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>110.2688270688022</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22995,10 +22995,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23010,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="8">
@@ -23023,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>117.6169553830385</v>
       </c>
       <c r="U8" t="n">
-        <v>169.7276164964508</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>70.43669735679175</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>194.7158398879884</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>269.1504133398157</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>304.2237906529627</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300473</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>169.7276164964508</v>
+        <v>126.71299384151</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>57.06664624006493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -23785,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>102.5059940158882</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.10615505383078</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>49.19646844041357</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>4.8745592198064</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -24180,10 +24180,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -24375,16 +24375,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.0904386938123</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>134.9699070214199</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>88.57144222861982</v>
+        <v>36.46078111520842</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,19 +24654,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>96.14494677818635</v>
       </c>
       <c r="U29" t="n">
-        <v>134.6847134965117</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>8.893130557884007</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>102.5059940158882</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>42.06483528720071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -25128,13 +25128,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>4.874559219806031</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>55.35263051300467</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>96.14494677818635</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -25557,19 +25557,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>53.42716423559462</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>156.7553487017543</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>130.352642708244</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>123.2210095550307</v>
       </c>
     </row>
     <row r="42">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>32.58218612546173</v>
       </c>
       <c r="U43" t="n">
-        <v>29.69708307246052</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>58.22935725061961</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,10 +25924,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>215.8408877643417</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U46" t="n">
-        <v>8.893130557884547</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>760217.0938180527</v>
+        <v>760217.0938180528</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>760217.0938180527</v>
+        <v>760217.0938180528</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>760217.0938180527</v>
+        <v>760217.0938180528</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>768793.0311188215</v>
+        <v>768793.0311188217</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>768793.0311188214</v>
+        <v>768793.0311188217</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>768793.0311188216</v>
+        <v>768793.0311188217</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>768793.0311188216</v>
+        <v>768793.0311188217</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>768793.0311188215</v>
+        <v>768793.0311188216</v>
       </c>
     </row>
     <row r="15">
@@ -26316,28 +26316,28 @@
         <v>209284.9156047157</v>
       </c>
       <c r="C2" t="n">
-        <v>209284.9156047158</v>
+        <v>209284.9156047157</v>
       </c>
       <c r="D2" t="n">
+        <v>315060.5169791577</v>
+      </c>
+      <c r="E2" t="n">
         <v>315060.5169791576</v>
       </c>
-      <c r="E2" t="n">
-        <v>315060.5169791577</v>
-      </c>
       <c r="F2" t="n">
-        <v>315060.5169791575</v>
+        <v>315060.5169791578</v>
       </c>
       <c r="G2" t="n">
+        <v>318613.5342886031</v>
+      </c>
+      <c r="H2" t="n">
         <v>318613.5342886032</v>
-      </c>
-      <c r="H2" t="n">
-        <v>318613.5342886033</v>
       </c>
       <c r="I2" t="n">
         <v>318613.5342886032</v>
       </c>
       <c r="J2" t="n">
-        <v>318613.5342886033</v>
+        <v>318613.5342886032</v>
       </c>
       <c r="K2" t="n">
         <v>318613.5342886032</v>
@@ -26346,10 +26346,10 @@
         <v>318613.5342886032</v>
       </c>
       <c r="M2" t="n">
-        <v>318613.5342886032</v>
+        <v>318613.5342886033</v>
       </c>
       <c r="N2" t="n">
-        <v>318613.5342886032</v>
+        <v>318613.5342886033</v>
       </c>
       <c r="O2" t="n">
         <v>315060.5169791576</v>
@@ -26423,7 +26423,7 @@
         <v>48718.21749193841</v>
       </c>
       <c r="D4" t="n">
-        <v>73540.57063561928</v>
+        <v>73540.57063561931</v>
       </c>
       <c r="E4" t="n">
         <v>73540.5706356193</v>
@@ -26432,10 +26432,10 @@
         <v>73540.5706356193</v>
       </c>
       <c r="G4" t="n">
-        <v>74374.35696474132</v>
+        <v>74374.35696474131</v>
       </c>
       <c r="H4" t="n">
-        <v>74374.35696474132</v>
+        <v>74374.35696474131</v>
       </c>
       <c r="I4" t="n">
         <v>74374.35696474131</v>
@@ -26447,7 +26447,7 @@
         <v>74374.35696474131</v>
       </c>
       <c r="L4" t="n">
-        <v>74374.35696474132</v>
+        <v>74374.35696474131</v>
       </c>
       <c r="M4" t="n">
         <v>74374.35696474131</v>
@@ -26456,7 +26456,7 @@
         <v>74374.35696474131</v>
       </c>
       <c r="O4" t="n">
-        <v>73540.57063561928</v>
+        <v>73540.57063561931</v>
       </c>
       <c r="P4" t="n">
         <v>73540.5706356193</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-79757.87685883429</v>
+        <v>-80435.4057182284</v>
       </c>
       <c r="C6" t="n">
-        <v>95197.6330342798</v>
+        <v>94520.1041748857</v>
       </c>
       <c r="D6" t="n">
-        <v>-55090.45087652473</v>
+        <v>-55287.18154785313</v>
       </c>
       <c r="E6" t="n">
-        <v>171926.1995586434</v>
+        <v>171729.4688873149</v>
       </c>
       <c r="F6" t="n">
-        <v>171926.1995586433</v>
+        <v>171729.4688873151</v>
       </c>
       <c r="G6" t="n">
-        <v>167642.2390785252</v>
+        <v>167461.658485876</v>
       </c>
       <c r="H6" t="n">
-        <v>173373.9670789887</v>
+        <v>173193.3864863395</v>
       </c>
       <c r="I6" t="n">
-        <v>173373.9670789886</v>
+        <v>173193.3864863395</v>
       </c>
       <c r="J6" t="n">
-        <v>36779.16627309372</v>
+        <v>36598.58568044446</v>
       </c>
       <c r="K6" t="n">
-        <v>173373.9670789886</v>
+        <v>173193.3864863395</v>
       </c>
       <c r="L6" t="n">
-        <v>15806.99620145862</v>
+        <v>15626.41560880948</v>
       </c>
       <c r="M6" t="n">
-        <v>173373.9670789886</v>
+        <v>173193.3864863396</v>
       </c>
       <c r="N6" t="n">
-        <v>173373.9670789886</v>
+        <v>173193.3864863396</v>
       </c>
       <c r="O6" t="n">
-        <v>171926.1995586433</v>
+        <v>171729.468887315</v>
       </c>
       <c r="P6" t="n">
-        <v>171926.1995586433</v>
+        <v>171729.468887315</v>
       </c>
     </row>
   </sheetData>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>460.0037840019794</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34780,25 +34780,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>276.3515302285466</v>
+        <v>506.6900639491206</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>522.0635703700256</v>
@@ -34950,10 +34950,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35020,16 +35020,16 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>14.48459394538775</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
@@ -35038,7 +35038,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>214.9153369226772</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
@@ -35193,7 +35193,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>282.5673928090785</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>882.4829213248665</v>
+        <v>671.0641132465087</v>
       </c>
       <c r="O9" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35275,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>176.8444622371208</v>
       </c>
       <c r="P12" t="n">
-        <v>499.6489601498182</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>461.3739449367923</v>
       </c>
       <c r="M15" t="n">
-        <v>617.2981931821737</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35746,10 +35746,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>724.2675227005893</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
-        <v>56.50169247908597</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>333.1858818629449</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37794,16 +37794,16 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>650.1321781990958</v>
+        <v>567.3282048618548</v>
       </c>
       <c r="P41" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>282.5673928090785</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>461.3739449367923</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367923</v>
       </c>
       <c r="M45" t="n">
-        <v>120.9475160573609</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
